--- a/wwwroot/Public/Data/user_data.xlsx
+++ b/wwwroot/Public/Data/user_data.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="10665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="base_year">#REF!</definedName>
     <definedName name="calss_count_per_grade">#REF!</definedName>
     <definedName name="student_count_per_calss">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7210" uniqueCount="6010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7328" uniqueCount="6100">
   <si>
     <t>passwd</t>
   </si>
@@ -18329,13 +18330,293 @@
   <si>
     <t>姓鹏</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tid1</t>
+  </si>
+  <si>
+    <t>tid1@elanglang.com</t>
+  </si>
+  <si>
+    <t>tid2</t>
+  </si>
+  <si>
+    <t>tid2@elanglang.com</t>
+  </si>
+  <si>
+    <t>龚以彪</t>
+  </si>
+  <si>
+    <t>tid3</t>
+  </si>
+  <si>
+    <t>tid3@elanglang.com</t>
+  </si>
+  <si>
+    <t>沙洋</t>
+  </si>
+  <si>
+    <t>tid4</t>
+  </si>
+  <si>
+    <t>tid4@elanglang.com</t>
+  </si>
+  <si>
+    <t>梁硕</t>
+  </si>
+  <si>
+    <t>tid5</t>
+  </si>
+  <si>
+    <t>tid5@elanglang.com</t>
+  </si>
+  <si>
+    <t>慕韵</t>
+  </si>
+  <si>
+    <t>tid6</t>
+  </si>
+  <si>
+    <t>tid6@elanglang.com</t>
+  </si>
+  <si>
+    <t>宣承</t>
+  </si>
+  <si>
+    <t>tid7</t>
+  </si>
+  <si>
+    <t>tid7@elanglang.com</t>
+  </si>
+  <si>
+    <t>伏昱明</t>
+  </si>
+  <si>
+    <t>tid8</t>
+  </si>
+  <si>
+    <t>tid8@elanglang.com</t>
+  </si>
+  <si>
+    <t>袁旭</t>
+  </si>
+  <si>
+    <t>tid9</t>
+  </si>
+  <si>
+    <t>tid9@elanglang.com</t>
+  </si>
+  <si>
+    <t>蒋辰</t>
+  </si>
+  <si>
+    <t>tid10</t>
+  </si>
+  <si>
+    <t>tid10@elanglang.com</t>
+  </si>
+  <si>
+    <t>巢函博</t>
+  </si>
+  <si>
+    <t>tid11</t>
+  </si>
+  <si>
+    <t>tid11@elanglang.com</t>
+  </si>
+  <si>
+    <t>吴舒琛</t>
+  </si>
+  <si>
+    <t>tid12</t>
+  </si>
+  <si>
+    <t>tid12@elanglang.com</t>
+  </si>
+  <si>
+    <t>党信进</t>
+  </si>
+  <si>
+    <t>tid13</t>
+  </si>
+  <si>
+    <t>tid13@elanglang.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+牧泽以</t>
+  </si>
+  <si>
+    <t>tid14</t>
+  </si>
+  <si>
+    <t>tid14@elanglang.com</t>
+  </si>
+  <si>
+    <t>伏海武</t>
+  </si>
+  <si>
+    <t>tid15</t>
+  </si>
+  <si>
+    <t>tid15@elanglang.com</t>
+  </si>
+  <si>
+    <t>欧烨强</t>
+  </si>
+  <si>
+    <t>tid16</t>
+  </si>
+  <si>
+    <t>tid16@elanglang.com</t>
+  </si>
+  <si>
+    <t>溥时若</t>
+  </si>
+  <si>
+    <t>tid17</t>
+  </si>
+  <si>
+    <t>tid17@elanglang.com</t>
+  </si>
+  <si>
+    <t>慎炫盛</t>
+  </si>
+  <si>
+    <t>tid18</t>
+  </si>
+  <si>
+    <t>tid18@elanglang.com</t>
+  </si>
+  <si>
+    <t>文厚</t>
+  </si>
+  <si>
+    <t>tid19</t>
+  </si>
+  <si>
+    <t>tid19@elanglang.com</t>
+  </si>
+  <si>
+    <t>田光茂</t>
+  </si>
+  <si>
+    <t>tid20</t>
+  </si>
+  <si>
+    <t>tid20@elanglang.com</t>
+  </si>
+  <si>
+    <t>仇国</t>
+  </si>
+  <si>
+    <t>tid21</t>
+  </si>
+  <si>
+    <t>tid21@elanglang.com</t>
+  </si>
+  <si>
+    <t>樊家</t>
+  </si>
+  <si>
+    <t>tid22</t>
+  </si>
+  <si>
+    <t>tid22@elanglang.com</t>
+  </si>
+  <si>
+    <t>贡义</t>
+  </si>
+  <si>
+    <t>tid23</t>
+  </si>
+  <si>
+    <t>tid23@elanglang.com</t>
+  </si>
+  <si>
+    <t>盍函伟</t>
+  </si>
+  <si>
+    <t>tid24</t>
+  </si>
+  <si>
+    <t>tid24@elanglang.com</t>
+  </si>
+  <si>
+    <t>江金</t>
+  </si>
+  <si>
+    <t>tid25</t>
+  </si>
+  <si>
+    <t>tid25@elanglang.com</t>
+  </si>
+  <si>
+    <t>嵇涵</t>
+  </si>
+  <si>
+    <t>tid26</t>
+  </si>
+  <si>
+    <t>tid26@elanglang.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+游曦博</t>
+  </si>
+  <si>
+    <t>tid27</t>
+  </si>
+  <si>
+    <t>tid27@elanglang.com</t>
+  </si>
+  <si>
+    <t>茅炎亨</t>
+  </si>
+  <si>
+    <t>tid28</t>
+  </si>
+  <si>
+    <t>tid28@elanglang.com</t>
+  </si>
+  <si>
+    <t>杨民</t>
+  </si>
+  <si>
+    <t>teacher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+鲁勋才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -18353,13 +18634,44 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -18374,9 +18686,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -18659,8 +18985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A488" sqref="A90:A488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -53508,4 +53834,607 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6010</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6011</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6013</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>6015</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6015</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10001</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6099</v>
+      </c>
+      <c r="F2" s="4">
+        <v>13157064410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>6017</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10002</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6019</v>
+      </c>
+      <c r="F3" s="5">
+        <v>13151785987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>6020</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6020</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10003</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6022</v>
+      </c>
+      <c r="F4" s="4">
+        <v>13152086349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>6023</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6023</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10004</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6025</v>
+      </c>
+      <c r="F5" s="5">
+        <v>13890942637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6026</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6026</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10005</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6028</v>
+      </c>
+      <c r="F6" s="4">
+        <v>13155434191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>6029</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6029</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10006</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6031</v>
+      </c>
+      <c r="F7" s="5">
+        <v>13151638611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>6032</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10007</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6034</v>
+      </c>
+      <c r="F8" s="4">
+        <v>13895762288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>6035</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6035</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10008</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6037</v>
+      </c>
+      <c r="F9" s="5">
+        <v>13894641111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>6038</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6038</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10009</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6040</v>
+      </c>
+      <c r="F10" s="4">
+        <v>13154036117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>6041</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6041</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10010</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>6043</v>
+      </c>
+      <c r="F11" s="5">
+        <v>13898095648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>6044</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6044</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10011</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>6046</v>
+      </c>
+      <c r="F12" s="4">
+        <v>13155799091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>6047</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6047</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10012</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6049</v>
+      </c>
+      <c r="F13" s="5">
+        <v>13155788955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>6050</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6050</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10013</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6052</v>
+      </c>
+      <c r="F14" s="4">
+        <v>13896915037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>6053</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6053</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10014</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>6055</v>
+      </c>
+      <c r="F15" s="5">
+        <v>13898715139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>6056</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6056</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10015</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>6058</v>
+      </c>
+      <c r="F16" s="4">
+        <v>13152421737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>6059</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6059</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10016</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>6061</v>
+      </c>
+      <c r="F17" s="5">
+        <v>13897243556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>6062</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6062</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10017</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>6064</v>
+      </c>
+      <c r="F18" s="4">
+        <v>13159184289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>6065</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6065</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10018</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>6067</v>
+      </c>
+      <c r="F19" s="5">
+        <v>13152643507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>6068</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6068</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10019</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>6070</v>
+      </c>
+      <c r="F20" s="4">
+        <v>13157082970</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>6071</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6071</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10020</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>6073</v>
+      </c>
+      <c r="F21" s="5">
+        <v>13895130368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6074</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10021</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>6076</v>
+      </c>
+      <c r="F22" s="4">
+        <v>13156411482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>6077</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6077</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10022</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>6079</v>
+      </c>
+      <c r="F23" s="5">
+        <v>13897597071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>6080</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6080</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10023</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6082</v>
+      </c>
+      <c r="F24" s="4">
+        <v>13157676455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>6083</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6083</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10024</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>6085</v>
+      </c>
+      <c r="F25" s="5">
+        <v>13899435513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>6086</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6086</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10025</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>6088</v>
+      </c>
+      <c r="F26" s="4">
+        <v>13897941521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>6089</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>6089</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10026</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>6091</v>
+      </c>
+      <c r="F27" s="5">
+        <v>13151978447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>6092</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6092</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10027</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>6094</v>
+      </c>
+      <c r="F28" s="4">
+        <v>13893592729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>6095</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>6095</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D29" s="5">
+        <v>10028</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>6097</v>
+      </c>
+      <c r="F29" s="5">
+        <v>13893320914</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wwwroot/Public/Data/user_data.xlsx
+++ b/wwwroot/Public/Data/user_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9746" uniqueCount="8103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9727" uniqueCount="8097">
   <si>
     <t>passwd</t>
   </si>
@@ -24599,59 +24599,35 @@
     <t>苗斌瑜妈妈</t>
   </si>
   <si>
-    <t>tearm_year</t>
-  </si>
-  <si>
-    <t>tearm_order</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>2010-2011</t>
-  </si>
-  <si>
-    <t>上学期</t>
-  </si>
-  <si>
-    <t>下学期</t>
-  </si>
-  <si>
-    <t>2011-2012</t>
-  </si>
-  <si>
-    <t>2012-2013</t>
-  </si>
-  <si>
-    <t>2013-2014</t>
-  </si>
-  <si>
-    <t>2014-2015</t>
-  </si>
-  <si>
-    <r>
-      <t>excel_time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_start</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excel_time_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pin2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel_t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel_t2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel_t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel_t4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>term_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24730,7 +24706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -24750,12 +24726,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -25066,7 +25036,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8101</v>
+        <v>8089</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -71465,7 +71435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -71489,7 +71459,7 @@
         <v>2416</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8102</v>
+        <v>8090</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2417</v>
@@ -72066,181 +72036,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>8089</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8090</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>8095</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8091</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8099</v>
+        <v>8092</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8091</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>8092</v>
-      </c>
-      <c r="B2" t="s">
         <v>8093</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>8094</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="10">
+        <v>40422</v>
+      </c>
       <c r="C2" s="10">
-        <v>40422</v>
+        <v>40573</v>
       </c>
       <c r="D2" s="10">
-        <v>40573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>8092</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8094</v>
+        <v>40229</v>
+      </c>
+      <c r="E2" s="10">
+        <v>40369</v>
+      </c>
+      <c r="F2" s="10">
+        <v>40391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="10">
+        <v>40787</v>
       </c>
       <c r="C3" s="10">
-        <v>40229</v>
+        <v>40923</v>
       </c>
       <c r="D3" s="10">
-        <v>40369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8095</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8093</v>
+        <v>40955</v>
+      </c>
+      <c r="E3" s="10">
+        <v>41096</v>
+      </c>
+      <c r="F3" s="10">
+        <v>40756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="10">
+        <v>41153</v>
       </c>
       <c r="C4" s="10">
-        <v>40787</v>
+        <v>41299</v>
       </c>
       <c r="D4" s="10">
-        <v>40923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8095</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8094</v>
+        <v>41325</v>
+      </c>
+      <c r="E4" s="10">
+        <v>41459</v>
+      </c>
+      <c r="F4" s="10">
+        <v>41122</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="10">
+        <v>41518</v>
       </c>
       <c r="C5" s="10">
-        <v>40955</v>
+        <v>41661</v>
       </c>
       <c r="D5" s="10">
-        <v>41096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>8096</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8093</v>
+        <v>41692</v>
+      </c>
+      <c r="E5" s="10">
+        <v>41821</v>
+      </c>
+      <c r="F5" s="10">
+        <v>41487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="10">
+        <v>41883</v>
       </c>
       <c r="C6" s="10">
-        <v>41153</v>
+        <v>42036</v>
       </c>
       <c r="D6" s="10">
-        <v>41299</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>8096</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8094</v>
-      </c>
-      <c r="C7" s="10">
-        <v>41325</v>
-      </c>
-      <c r="D7" s="10">
-        <v>41459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>8097</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8093</v>
-      </c>
-      <c r="C8" s="10">
-        <v>41518</v>
-      </c>
-      <c r="D8" s="10">
-        <v>41661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8097</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8094</v>
-      </c>
-      <c r="C9" s="10">
-        <v>41692</v>
-      </c>
-      <c r="D9" s="10">
-        <v>41821</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>8098</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8093</v>
-      </c>
-      <c r="C10" s="10">
-        <v>41883</v>
-      </c>
-      <c r="D10" s="10">
-        <v>42036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>8098</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8094</v>
-      </c>
-      <c r="C11" s="10">
         <v>42064</v>
       </c>
-      <c r="D11" s="10">
+      <c r="E6" s="10">
         <v>42193</v>
+      </c>
+      <c r="F6" s="10">
+        <v>41852</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/Public/Data/user_data.xlsx
+++ b/wwwroot/Public/Data/user_data.xlsx
@@ -72039,7 +72039,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -72082,10 +72082,10 @@
         <v>40573</v>
       </c>
       <c r="D2" s="10">
-        <v>40229</v>
+        <v>40594</v>
       </c>
       <c r="E2" s="10">
-        <v>40369</v>
+        <v>40734</v>
       </c>
       <c r="F2" s="10">
         <v>40391</v>
@@ -72175,5 +72175,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>